--- a/Data/Processed/Angiosperms/missing_powo_ipni/Hydnoraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Hydnoraceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -13346,7 +13346,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -16481,7 +16481,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -16569,7 +16569,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -16877,7 +16877,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -17702,7 +17702,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -17955,7 +17955,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -19099,7 +19099,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -19242,7 +19242,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -19418,7 +19418,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -19506,7 +19506,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -19825,7 +19825,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
